--- a/rp/qq群推广日志_江海波.xlsx
+++ b/rp/qq群推广日志_江海波.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="681">
   <si>
     <t>关键词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2459,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:XFD94"/>
+    <sheetView tabSelected="1" topLeftCell="C126" workbookViewId="0">
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6597,7 +6597,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>14</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>14</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -6956,8 +6956,11 @@
       <c r="I140" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J140" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -7017,7 +7020,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -7047,7 +7050,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>14</v>
       </c>
